--- a/inputs/sample_plate_plan_plate_1.xlsx
+++ b/inputs/sample_plate_plan_plate_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antoine Local\Desktop\PhD 2024-2027\Cahier de laboratoire\others\projects\website_personal\website_personal\posts\rshiny_app_zebrabox\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antoine Local\Desktop\PhD 2024-2027\Cahier de laboratoire\others\projects\Rshiny_app_zebrabox\Rshiny_app_zebrabox\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD24D3B-1347-4FCC-BD92-1F121190120E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70B5255-4491-44DB-918F-F66E5EA423F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -403,7 +403,7 @@
     <t>3- plate_id</t>
   </si>
   <si>
-    <t xml:space="preserve">settings used to generate the plate plan witht he app : </t>
+    <t>settings used to generate the plate plan with the app:</t>
   </si>
 </sst>
 </file>
@@ -743,7 +743,7 @@
   <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
